--- a/public/Timetable Venue Booking 2024-25-I.xlsx
+++ b/public/Timetable Venue Booking 2024-25-I.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhx_26/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LNMIIT\Courses\BTP\Venue booking Issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E703B-7152-1640-A7B9-156BAE9B40E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA7CCA2-094E-4C1D-AD97-0E4852DCE9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" xr2:uid="{AD61B371-4651-4822-B7DE-1A507D8DE768}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD61B371-4651-4822-B7DE-1A507D8DE768}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="34">
   <si>
     <t>day</t>
   </si>
@@ -75,9 +75,6 @@
     <t>CSE</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
     <t>Professor</t>
   </si>
   <si>
@@ -86,15 +83,66 @@
   <si>
     <t>Course</t>
   </si>
+  <si>
+    <t>LT-4</t>
+  </si>
+  <si>
+    <t>LT-5</t>
+  </si>
+  <si>
+    <t>LT-6</t>
+  </si>
+  <si>
+    <t>LT-7</t>
+  </si>
+  <si>
+    <t>LT-8</t>
+  </si>
+  <si>
+    <t>LT-9</t>
+  </si>
+  <si>
+    <t>LT-10</t>
+  </si>
+  <si>
+    <t>LT-11</t>
+  </si>
+  <si>
+    <t>LT-12</t>
+  </si>
+  <si>
+    <t>LT-13</t>
+  </si>
+  <si>
+    <t>LT-14</t>
+  </si>
+  <si>
+    <t>LT-15</t>
+  </si>
+  <si>
+    <t>LT-16</t>
+  </si>
+  <si>
+    <t>LT-17</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -441,22 +489,22 @@
   <dimension ref="A1:K512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,18 +539,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>0.33333333333333331</v>
@@ -517,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2">
         <v>45509</v>
@@ -526,18 +574,18 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>0.33333333333333331</v>
@@ -552,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2">
         <v>45509</v>
@@ -561,18 +609,18 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>0.33333333333333331</v>
@@ -587,7 +635,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="2">
         <v>45509</v>
@@ -596,3055 +644,3462 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K9" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K10" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K11" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K12" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K13" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K14" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K15" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K16" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K17" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="2">
+        <v>45509</v>
+      </c>
+      <c r="K18" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
     </row>
-    <row r="330" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="433" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="434" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="435" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="436" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="437" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="438" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="439" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="440" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="441" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="442" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="443" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="444" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="445" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="446" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="447" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="448" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
     </row>
-    <row r="465" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="468" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="471" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="472" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="473" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="474" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="475" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="476" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="477" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="478" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="479" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="480" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="485" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="488" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="489" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="492" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="493" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="496" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
-    <row r="504" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
-    <row r="508" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/Timetable Venue Booking 2024-25-I.xlsx
+++ b/public/Timetable Venue Booking 2024-25-I.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LNMIIT\Courses\BTP\Venue booking Issues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhx_26/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA7CCA2-094E-4C1D-AD97-0E4852DCE9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E703B-7152-1640-A7B9-156BAE9B40E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD61B371-4651-4822-B7DE-1A507D8DE768}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" xr2:uid="{AD61B371-4651-4822-B7DE-1A507D8DE768}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>day</t>
   </si>
@@ -75,6 +75,9 @@
     <t>CSE</t>
   </si>
   <si>
+    <t>Monday</t>
+  </si>
+  <si>
     <t>Professor</t>
   </si>
   <si>
@@ -83,66 +86,15 @@
   <si>
     <t>Course</t>
   </si>
-  <si>
-    <t>LT-4</t>
-  </si>
-  <si>
-    <t>LT-5</t>
-  </si>
-  <si>
-    <t>LT-6</t>
-  </si>
-  <si>
-    <t>LT-7</t>
-  </si>
-  <si>
-    <t>LT-8</t>
-  </si>
-  <si>
-    <t>LT-9</t>
-  </si>
-  <si>
-    <t>LT-10</t>
-  </si>
-  <si>
-    <t>LT-11</t>
-  </si>
-  <si>
-    <t>LT-12</t>
-  </si>
-  <si>
-    <t>LT-13</t>
-  </si>
-  <si>
-    <t>LT-14</t>
-  </si>
-  <si>
-    <t>LT-15</t>
-  </si>
-  <si>
-    <t>LT-16</t>
-  </si>
-  <si>
-    <t>LT-17</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -489,22 +441,22 @@
   <dimension ref="A1:K512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,18 +491,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>0.33333333333333331</v>
@@ -565,7 +517,7 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2">
         <v>45509</v>
@@ -574,18 +526,18 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>0.33333333333333331</v>
@@ -600,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2">
         <v>45509</v>
@@ -609,18 +561,18 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>0.33333333333333331</v>
@@ -635,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2">
         <v>45509</v>
@@ -644,3462 +596,3055 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K5" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K6" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K7" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K8" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K9" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K10" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K11" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K12" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K13" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K14" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K15" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K16" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K17" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K18" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
     </row>
-    <row r="330" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
     </row>
-    <row r="465" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
-    <row r="504" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
-    <row r="508" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>